--- a/results/Homeopathy_excluded/mod2.galtan.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod2.galtan.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0140585007682426</v>
+        <v>-0.0140576785291708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0380211965590375</v>
+        <v>0.0380212112380253</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0885786766730744</v>
+        <v>-0.0885778832042899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0604616751365892</v>
+        <v>0.0604625261459482</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.369754296038875</v>
+        <v>-0.369732527487489</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7115655719145</v>
+        <v>0.711581793128363</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.104874384474803</v>
+        <v>-0.104875237180758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0407663086727757</v>
+        <v>0.0407663351357146</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.184774881256087</v>
+        <v>-0.184775785828448</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0249738876935203</v>
+        <v>-0.0249746885330674</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.57257494949108</v>
+        <v>-2.57259419645203</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0100945096480418</v>
+        <v>0.0100939483671887</v>
       </c>
     </row>
   </sheetData>
